--- a/data/excel_files/월_소비자물가지수.xlsx
+++ b/data/excel_files/월_소비자물가지수.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D1CD32-B6C3-B546-B859-36AA941FFACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C03168-DB40-ED4A-98DC-2E404946B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="3740" windowWidth="27900" windowHeight="16940" xr2:uid="{16553655-D10B-B942-85FF-BE8F1470C64D}"/>
+    <workbookView xWindow="10540" yWindow="3120" windowWidth="27900" windowHeight="16940" xr2:uid="{16553655-D10B-B942-85FF-BE8F1470C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,11 +85,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,13 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAFA981-D5EF-1C42-9CCE-E815EB56503F}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B209"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -426,1664 +432,1728 @@
       <c r="A2" s="1">
         <v>37622</v>
       </c>
-      <c r="B2">
-        <v>79.7</v>
+      <c r="B2" s="2">
+        <v>72.563999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>37653</v>
       </c>
-      <c r="B3">
-        <v>80.13</v>
+      <c r="B3" s="2">
+        <v>72.962000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>37681</v>
       </c>
-      <c r="B4">
-        <v>81.08</v>
+      <c r="B4" s="2">
+        <v>73.828000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>37712</v>
       </c>
-      <c r="B5">
-        <v>80.94</v>
+      <c r="B5" s="2">
+        <v>73.694999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>37742</v>
       </c>
-      <c r="B6">
-        <v>80.790000000000006</v>
+      <c r="B6" s="2">
+        <v>73.561999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>37773</v>
       </c>
-      <c r="B7">
-        <v>80.569999999999993</v>
+      <c r="B7" s="2">
+        <v>73.361999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>37803</v>
       </c>
-      <c r="B8">
-        <v>80.5</v>
+      <c r="B8" s="2">
+        <v>73.296000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>37834</v>
       </c>
-      <c r="B9">
-        <v>80.86</v>
+      <c r="B9" s="2">
+        <v>73.628</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>37865</v>
       </c>
-      <c r="B10">
-        <v>81.599999999999994</v>
+      <c r="B10" s="2">
+        <v>74.293999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>37895</v>
       </c>
-      <c r="B11">
-        <v>81.67</v>
+      <c r="B11" s="2">
+        <v>74.36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>37926</v>
       </c>
-      <c r="B12">
-        <v>81.52</v>
+      <c r="B12" s="2">
+        <v>74.227000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>37956</v>
       </c>
-      <c r="B13">
-        <v>81.89</v>
+      <c r="B13" s="2">
+        <v>74.561000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>37987</v>
       </c>
-      <c r="B14">
-        <v>82.4</v>
+      <c r="B14" s="2">
+        <v>75.027000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>38018</v>
       </c>
-      <c r="B15">
-        <v>82.77</v>
+      <c r="B15" s="2">
+        <v>75.358999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>38047</v>
       </c>
-      <c r="B16">
-        <v>83.57</v>
+      <c r="B16" s="2">
+        <v>76.090999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>38078</v>
       </c>
-      <c r="B17">
-        <v>83.57</v>
+      <c r="B17" s="2">
+        <v>76.090999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>38108</v>
       </c>
-      <c r="B18">
-        <v>83.5</v>
+      <c r="B18" s="2">
+        <v>76.025000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>38139</v>
       </c>
-      <c r="B19">
-        <v>83.5</v>
+      <c r="B19" s="2">
+        <v>76.025000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>38169</v>
       </c>
-      <c r="B20">
-        <v>84.01</v>
+      <c r="B20" s="2">
+        <v>76.491</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>38200</v>
       </c>
-      <c r="B21">
-        <v>84.74</v>
+      <c r="B21" s="2">
+        <v>77.156000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>38231</v>
       </c>
-      <c r="B22">
-        <v>84.74</v>
+      <c r="B22" s="2">
+        <v>77.156000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>38261</v>
       </c>
-      <c r="B23">
-        <v>84.74</v>
+      <c r="B23" s="2">
+        <v>77.156000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>38292</v>
       </c>
-      <c r="B24">
-        <v>84.23</v>
+      <c r="B24" s="2">
+        <v>76.691000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>38322</v>
       </c>
-      <c r="B25">
-        <v>84.37</v>
+      <c r="B25" s="2">
+        <v>76.823999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>38353</v>
       </c>
-      <c r="B26">
-        <v>85.2</v>
+      <c r="B26" s="2">
+        <v>77.58</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>38384</v>
       </c>
-      <c r="B27">
-        <v>85.55</v>
+      <c r="B27" s="2">
+        <v>77.894999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>38412</v>
       </c>
-      <c r="B28">
-        <v>86.07</v>
+      <c r="B28" s="2">
+        <v>78.364999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>38443</v>
       </c>
-      <c r="B29">
-        <v>86.15</v>
+      <c r="B29" s="2">
+        <v>78.444000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>38473</v>
       </c>
-      <c r="B30">
-        <v>86.07</v>
+      <c r="B30" s="2">
+        <v>78.364999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>38504</v>
       </c>
-      <c r="B31">
-        <v>85.81</v>
+      <c r="B31" s="2">
+        <v>78.129000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>38534</v>
       </c>
-      <c r="B32">
-        <v>86.15</v>
+      <c r="B32" s="2">
+        <v>78.444000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>38565</v>
       </c>
-      <c r="B33">
-        <v>86.41</v>
+      <c r="B33" s="2">
+        <v>78.679000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>38596</v>
       </c>
-      <c r="B34">
-        <v>86.84</v>
+      <c r="B34" s="2">
+        <v>79.070999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>38626</v>
       </c>
-      <c r="B35">
-        <v>86.67</v>
+      <c r="B35" s="2">
+        <v>78.914000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>38657</v>
       </c>
-      <c r="B36">
-        <v>86.33</v>
+      <c r="B36" s="2">
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>38687</v>
       </c>
-      <c r="B37">
-        <v>86.58</v>
+      <c r="B37" s="2">
+        <v>78.835999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>38718</v>
       </c>
-      <c r="B38">
-        <v>87.1</v>
+      <c r="B38" s="2">
+        <v>79.305999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>38749</v>
       </c>
-      <c r="B39">
-        <v>87.27</v>
+      <c r="B39" s="2">
+        <v>79.463999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38777</v>
       </c>
-      <c r="B40">
-        <v>87.79</v>
+      <c r="B40" s="2">
+        <v>79.933999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>38808</v>
       </c>
-      <c r="B41">
-        <v>87.88</v>
+      <c r="B41" s="2">
+        <v>80.013000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>38838</v>
       </c>
-      <c r="B42">
-        <v>88.05</v>
+      <c r="B42" s="2">
+        <v>80.168999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>38869</v>
       </c>
-      <c r="B43">
-        <v>87.88</v>
+      <c r="B43" s="2">
+        <v>80.013000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>38899</v>
       </c>
-      <c r="B44">
-        <v>88.22</v>
+      <c r="B44" s="2">
+        <v>80.325999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>38930</v>
       </c>
-      <c r="B45">
-        <v>88.74</v>
+      <c r="B45" s="2">
+        <v>80.796999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>38961</v>
       </c>
-      <c r="B46">
-        <v>89</v>
+      <c r="B46" s="2">
+        <v>81.031999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>38991</v>
       </c>
-      <c r="B47">
-        <v>88.57</v>
+      <c r="B47" s="2">
+        <v>80.64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>39022</v>
       </c>
-      <c r="B48">
-        <v>88.13</v>
+      <c r="B48" s="2">
+        <v>80.248000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>39052</v>
       </c>
-      <c r="B49">
-        <v>88.39</v>
+      <c r="B49" s="2">
+        <v>80.483000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50">
-        <v>88.57</v>
+      <c r="B50" s="2">
+        <v>80.64</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>39114</v>
       </c>
-      <c r="B51">
-        <v>89.17</v>
+      <c r="B51" s="2">
+        <v>81.188999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>39142</v>
       </c>
-      <c r="B52">
-        <v>89.69</v>
+      <c r="B52" s="2">
+        <v>81.66</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>39173</v>
       </c>
-      <c r="B53">
-        <v>90.03</v>
+      <c r="B53" s="2">
+        <v>81.972999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>39203</v>
       </c>
-      <c r="B54">
-        <v>90.12</v>
+      <c r="B54" s="2">
+        <v>82.052000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>39234</v>
       </c>
-      <c r="B55">
-        <v>90.12</v>
+      <c r="B55" s="2">
+        <v>82.052000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>39264</v>
       </c>
-      <c r="B56">
-        <v>90.46</v>
+      <c r="B56" s="2">
+        <v>82.366</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>39295</v>
       </c>
-      <c r="B57">
-        <v>90.55</v>
+      <c r="B57" s="2">
+        <v>82.444000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>39326</v>
       </c>
-      <c r="B58">
-        <v>91.06</v>
+      <c r="B58" s="2">
+        <v>82.915000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>39356</v>
       </c>
-      <c r="B59">
-        <v>91.24</v>
+      <c r="B59" s="2">
+        <v>83.072000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>39387</v>
       </c>
-      <c r="B60">
-        <v>91.24</v>
+      <c r="B60" s="2">
+        <v>83.072000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>39417</v>
       </c>
-      <c r="B61">
-        <v>91.58</v>
+      <c r="B61" s="2">
+        <v>83.385999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>39448</v>
       </c>
-      <c r="B62">
-        <v>92.01</v>
+      <c r="B62" s="2">
+        <v>83.777000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>39479</v>
       </c>
-      <c r="B63">
-        <v>92.36</v>
+      <c r="B63" s="2">
+        <v>84.091999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>39508</v>
       </c>
-      <c r="B64">
-        <v>93.22</v>
+      <c r="B64" s="2">
+        <v>84.876000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>39539</v>
       </c>
-      <c r="B65">
-        <v>93.74</v>
+      <c r="B65" s="2">
+        <v>85.346999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>39569</v>
       </c>
-      <c r="B66">
-        <v>94.51</v>
+      <c r="B66" s="2">
+        <v>86.052000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>39600</v>
       </c>
-      <c r="B67">
-        <v>95.11</v>
+      <c r="B67" s="2">
+        <v>86.600999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>39630</v>
       </c>
-      <c r="B68">
-        <v>95.8</v>
+      <c r="B68" s="2">
+        <v>87.228999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>39661</v>
       </c>
-      <c r="B69">
-        <v>95.63</v>
+      <c r="B69" s="2">
+        <v>87.072000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>39692</v>
       </c>
-      <c r="B70">
-        <v>95.72</v>
+      <c r="B70" s="2">
+        <v>87.150999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>39722</v>
       </c>
-      <c r="B71">
-        <v>95.63</v>
+      <c r="B71" s="2">
+        <v>87.072000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>39753</v>
       </c>
-      <c r="B72">
-        <v>95.37</v>
+      <c r="B72" s="2">
+        <v>86.837000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>39783</v>
       </c>
-      <c r="B73">
-        <v>95.37</v>
+      <c r="B73" s="2">
+        <v>86.837000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>39814</v>
       </c>
-      <c r="B74">
-        <v>95.46</v>
+      <c r="B74" s="2">
+        <v>86.915999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>39845</v>
       </c>
-      <c r="B75">
-        <v>96.15</v>
+      <c r="B75" s="2">
+        <v>87.543000000000006</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>39873</v>
       </c>
-      <c r="B76">
-        <v>96.84</v>
+      <c r="B76" s="2">
+        <v>88.17</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>39904</v>
       </c>
-      <c r="B77">
-        <v>97.09</v>
+      <c r="B77" s="2">
+        <v>88.405000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>39934</v>
       </c>
-      <c r="B78">
-        <v>97.09</v>
+      <c r="B78" s="2">
+        <v>88.405000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>39965</v>
       </c>
-      <c r="B79">
-        <v>97.01</v>
+      <c r="B79" s="2">
+        <v>88.326999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>39995</v>
       </c>
-      <c r="B80">
-        <v>97.35</v>
+      <c r="B80" s="2">
+        <v>88.641000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>40026</v>
       </c>
-      <c r="B81">
-        <v>97.7</v>
+      <c r="B81" s="2">
+        <v>88.954999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>40057</v>
       </c>
-      <c r="B82">
-        <v>97.78</v>
+      <c r="B82" s="2">
+        <v>89.034000000000006</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>40087</v>
       </c>
-      <c r="B83">
-        <v>97.53</v>
+      <c r="B83" s="2">
+        <v>88.798000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>40118</v>
       </c>
-      <c r="B84">
-        <v>97.7</v>
+      <c r="B84" s="2">
+        <v>88.954999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>40148</v>
       </c>
-      <c r="B85">
-        <v>98.04</v>
+      <c r="B85" s="2">
+        <v>89.269000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>40179</v>
       </c>
-      <c r="B86">
-        <v>98.82</v>
+      <c r="B86" s="2">
+        <v>89.974000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>40210</v>
       </c>
-      <c r="B87">
-        <v>99.02</v>
+      <c r="B87" s="2">
+        <v>90.156000000000006</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>40238</v>
       </c>
-      <c r="B88">
-        <v>99.22</v>
+      <c r="B88" s="2">
+        <v>90.337999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>40269</v>
       </c>
-      <c r="B89">
-        <v>99.62</v>
+      <c r="B89" s="2">
+        <v>90.701999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>40299</v>
       </c>
-      <c r="B90">
-        <v>99.72</v>
+      <c r="B90" s="2">
+        <v>90.793000000000006</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>40330</v>
       </c>
-      <c r="B91">
-        <v>99.62</v>
+      <c r="B91" s="2">
+        <v>90.701999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>40360</v>
       </c>
-      <c r="B92">
-        <v>99.82</v>
+      <c r="B92" s="2">
+        <v>90.884</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>40391</v>
       </c>
-      <c r="B93">
-        <v>100.32</v>
+      <c r="B93" s="2">
+        <v>91.34</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>40422</v>
       </c>
-      <c r="B94">
-        <v>101.12</v>
+      <c r="B94" s="2">
+        <v>92.067999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>40452</v>
       </c>
-      <c r="B95">
-        <v>101.12</v>
+      <c r="B95" s="2">
+        <v>92.067999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>40483</v>
       </c>
-      <c r="B96">
-        <v>100.62</v>
+      <c r="B96" s="2">
+        <v>91.613</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>40513</v>
       </c>
-      <c r="B97">
-        <v>101.02</v>
+      <c r="B97" s="2">
+        <v>91.977000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>40544</v>
       </c>
-      <c r="B98">
-        <v>102.22</v>
+      <c r="B98" s="2">
+        <v>93.07</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>40575</v>
       </c>
-      <c r="B99">
-        <v>102.92</v>
+      <c r="B99" s="2">
+        <v>93.706999999999994</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>40603</v>
       </c>
-      <c r="B100">
-        <v>103.32</v>
+      <c r="B100" s="2">
+        <v>94.072000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>40634</v>
       </c>
-      <c r="B101">
-        <v>103.42</v>
+      <c r="B101" s="2">
+        <v>94.162999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>40664</v>
       </c>
-      <c r="B102">
-        <v>103.62</v>
+      <c r="B102" s="2">
+        <v>94.344999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>40695</v>
       </c>
-      <c r="B103">
-        <v>103.82</v>
+      <c r="B103" s="2">
+        <v>94.527000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>40725</v>
       </c>
-      <c r="B104">
-        <v>104.32</v>
+      <c r="B104" s="2">
+        <v>94.981999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>40756</v>
       </c>
-      <c r="B105">
-        <v>105.02</v>
+      <c r="B105" s="2">
+        <v>95.62</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>40787</v>
       </c>
-      <c r="B106">
-        <v>104.92</v>
+      <c r="B106" s="2">
+        <v>95.528999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>40817</v>
       </c>
-      <c r="B107">
-        <v>104.72</v>
+      <c r="B107" s="2">
+        <v>95.346999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>40848</v>
       </c>
-      <c r="B108">
-        <v>104.82</v>
+      <c r="B108" s="2">
+        <v>95.438000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>40878</v>
       </c>
-      <c r="B109">
-        <v>105.22</v>
+      <c r="B109" s="2">
+        <v>95.802000000000007</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>40909</v>
       </c>
-      <c r="B110">
-        <v>105.64</v>
+      <c r="B110" s="2">
+        <v>96.183999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>40940</v>
       </c>
-      <c r="B111">
-        <v>106.04</v>
+      <c r="B111" s="2">
+        <v>96.549000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>40969</v>
       </c>
-      <c r="B112">
-        <v>106.07</v>
+      <c r="B112" s="2">
+        <v>96.575999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>41000</v>
       </c>
-      <c r="B113">
-        <v>106.06</v>
+      <c r="B113" s="2">
+        <v>96.566999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>41030</v>
       </c>
-      <c r="B114">
-        <v>106.25</v>
+      <c r="B114" s="2">
+        <v>96.74</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>41061</v>
       </c>
-      <c r="B115">
-        <v>106.1</v>
+      <c r="B115" s="2">
+        <v>96.602999999999994</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>41091</v>
       </c>
-      <c r="B116">
-        <v>105.86</v>
+      <c r="B116" s="2">
+        <v>96.385000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>41122</v>
       </c>
-      <c r="B117">
-        <v>106.35</v>
+      <c r="B117" s="2">
+        <v>96.831000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>41153</v>
       </c>
-      <c r="B118">
-        <v>107.11</v>
+      <c r="B118" s="2">
+        <v>97.522999999999996</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>41183</v>
       </c>
-      <c r="B119">
-        <v>106.91</v>
+      <c r="B119" s="2">
+        <v>97.340999999999994</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>41214</v>
       </c>
-      <c r="B120">
-        <v>106.53</v>
+      <c r="B120" s="2">
+        <v>96.995000000000005</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>41244</v>
       </c>
-      <c r="B121">
-        <v>106.72</v>
+      <c r="B121" s="2">
+        <v>97.168000000000006</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>41275</v>
       </c>
-      <c r="B122">
-        <v>107.36</v>
+      <c r="B122" s="2">
+        <v>97.751000000000005</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>41306</v>
       </c>
-      <c r="B123">
-        <v>107.72</v>
+      <c r="B123" s="2">
+        <v>98.078000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>41334</v>
       </c>
-      <c r="B124">
-        <v>107.62</v>
+      <c r="B124" s="2">
+        <v>97.986999999999995</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>41365</v>
       </c>
-      <c r="B125">
-        <v>107.47</v>
+      <c r="B125" s="2">
+        <v>97.850999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>41395</v>
       </c>
-      <c r="B126">
-        <v>107.47</v>
+      <c r="B126" s="2">
+        <v>97.850999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>41426</v>
       </c>
-      <c r="B127">
-        <v>107.34</v>
+      <c r="B127" s="2">
+        <v>97.731999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>41456</v>
       </c>
-      <c r="B128">
-        <v>107.57</v>
+      <c r="B128" s="2">
+        <v>97.941999999999993</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>41487</v>
       </c>
-      <c r="B129">
-        <v>107.95</v>
+      <c r="B129" s="2">
+        <v>98.287999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>41518</v>
       </c>
-      <c r="B130">
-        <v>108.16</v>
+      <c r="B130" s="2">
+        <v>98.478999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>41548</v>
       </c>
-      <c r="B131">
-        <v>107.83</v>
+      <c r="B131" s="2">
+        <v>98.179000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>41579</v>
       </c>
-      <c r="B132">
-        <v>107.81</v>
+      <c r="B132" s="2">
+        <v>98.16</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>41609</v>
       </c>
-      <c r="B133">
-        <v>107.94</v>
+      <c r="B133" s="2">
+        <v>98.278999999999996</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>41640</v>
       </c>
-      <c r="B134">
-        <v>108.52</v>
+      <c r="B134" s="2">
+        <v>98.807000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>41671</v>
       </c>
-      <c r="B135">
-        <v>108.81</v>
+      <c r="B135" s="2">
+        <v>99.070999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>41699</v>
       </c>
-      <c r="B136">
-        <v>109.01</v>
+      <c r="B136" s="2">
+        <v>99.253</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>41730</v>
       </c>
-      <c r="B137">
-        <v>109.08</v>
+      <c r="B137" s="2">
+        <v>99.316999999999993</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>41760</v>
       </c>
-      <c r="B138">
-        <v>109.26</v>
+      <c r="B138" s="2">
+        <v>99.480999999999995</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>41791</v>
       </c>
-      <c r="B139">
-        <v>109.12</v>
+      <c r="B139" s="2">
+        <v>99.352999999999994</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>41821</v>
       </c>
-      <c r="B140">
-        <v>109.28</v>
+      <c r="B140" s="2">
+        <v>99.498999999999995</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>41852</v>
       </c>
-      <c r="B141">
-        <v>109.47</v>
+      <c r="B141" s="2">
+        <v>99.671999999999997</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>41883</v>
       </c>
-      <c r="B142">
-        <v>109.4</v>
+      <c r="B142" s="2">
+        <v>99.608000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>41913</v>
       </c>
-      <c r="B143">
-        <v>109.07</v>
+      <c r="B143" s="2">
+        <v>99.308000000000007</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>41944</v>
       </c>
-      <c r="B144">
-        <v>108.85</v>
+      <c r="B144" s="2">
+        <v>99.108000000000004</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>41974</v>
       </c>
-      <c r="B145">
-        <v>108.84</v>
+      <c r="B145" s="2">
+        <v>99.097999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>42005</v>
       </c>
-      <c r="B146">
-        <v>109.58</v>
+      <c r="B146" s="2">
+        <v>99.77</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>42036</v>
       </c>
-      <c r="B147">
-        <v>109.51</v>
+      <c r="B147" s="2">
+        <v>99.71</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>42064</v>
       </c>
-      <c r="B148">
-        <v>109.52</v>
+      <c r="B148" s="2">
+        <v>99.72</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>42095</v>
       </c>
-      <c r="B149">
-        <v>109.55</v>
+      <c r="B149" s="2">
+        <v>99.75</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>42125</v>
       </c>
-      <c r="B150">
-        <v>109.86</v>
+      <c r="B150" s="2">
+        <v>100.03</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>42156</v>
       </c>
-      <c r="B151">
-        <v>109.88</v>
+      <c r="B151" s="2">
+        <v>100.05</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>42186</v>
       </c>
-      <c r="B152">
-        <v>110.08</v>
+      <c r="B152" s="2">
+        <v>100.23</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>42217</v>
       </c>
-      <c r="B153">
-        <v>110.23</v>
+      <c r="B153" s="2">
+        <v>100.37</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>42248</v>
       </c>
-      <c r="B154">
-        <v>109.95</v>
+      <c r="B154" s="2">
+        <v>100.11</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>42278</v>
       </c>
-      <c r="B155">
-        <v>109.95</v>
+      <c r="B155" s="2">
+        <v>100.11</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>42309</v>
       </c>
-      <c r="B156">
-        <v>109.74</v>
+      <c r="B156" s="2">
+        <v>99.92</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>42339</v>
       </c>
-      <c r="B157">
-        <v>110.07</v>
+      <c r="B157" s="2">
+        <v>100.22</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>42370</v>
       </c>
-      <c r="B158">
-        <v>110.26</v>
+      <c r="B158" s="2">
+        <v>100.39</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>42401</v>
       </c>
-      <c r="B159">
-        <v>110.73</v>
+      <c r="B159" s="2">
+        <v>100.82</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>42430</v>
       </c>
-      <c r="B160">
-        <v>110.44</v>
+      <c r="B160" s="2">
+        <v>100.56</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>42461</v>
       </c>
-      <c r="B161">
-        <v>110.65</v>
+      <c r="B161" s="2">
+        <v>100.75</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>42491</v>
       </c>
-      <c r="B162">
-        <v>110.72</v>
+      <c r="B162" s="2">
+        <v>100.81</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>42522</v>
       </c>
-      <c r="B163">
-        <v>110.7</v>
+      <c r="B163" s="2">
+        <v>100.79</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>42552</v>
       </c>
-      <c r="B164">
-        <v>110.49</v>
+      <c r="B164" s="2">
+        <v>100.6</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>42583</v>
       </c>
-      <c r="B165">
-        <v>110.77</v>
+      <c r="B165" s="2">
+        <v>100.86</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>42614</v>
       </c>
-      <c r="B166">
-        <v>111.43</v>
+      <c r="B166" s="2">
+        <v>101.46</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>42644</v>
       </c>
-      <c r="B167">
-        <v>111.59</v>
+      <c r="B167" s="2">
+        <v>101.6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>42675</v>
       </c>
-      <c r="B168">
-        <v>111.42</v>
+      <c r="B168" s="2">
+        <v>101.45</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>42705</v>
       </c>
-      <c r="B169">
-        <v>111.54</v>
+      <c r="B169" s="2">
+        <v>101.56</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>42736</v>
       </c>
-      <c r="B170">
-        <v>112.73</v>
+      <c r="B170" s="2">
+        <v>102.64</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>42767</v>
       </c>
-      <c r="B171">
-        <v>113.04</v>
+      <c r="B171" s="2">
+        <v>102.92</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>42795</v>
       </c>
-      <c r="B172">
-        <v>112.96</v>
+      <c r="B172" s="2">
+        <v>102.85</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>42826</v>
       </c>
-      <c r="B173">
-        <v>112.82</v>
+      <c r="B173" s="2">
+        <v>102.72</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>42856</v>
       </c>
-      <c r="B174">
-        <v>112.94</v>
+      <c r="B174" s="2">
+        <v>102.83</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>42887</v>
       </c>
-      <c r="B175">
-        <v>112.69</v>
+      <c r="B175" s="2">
+        <v>102.61</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>42917</v>
       </c>
-      <c r="B176">
-        <v>112.88</v>
+      <c r="B176" s="2">
+        <v>102.78</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>42948</v>
       </c>
-      <c r="B177">
-        <v>113.53</v>
+      <c r="B177" s="2">
+        <v>103.37</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>42979</v>
       </c>
-      <c r="B178">
-        <v>113.66</v>
+      <c r="B178" s="2">
+        <v>103.49</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>43009</v>
       </c>
-      <c r="B179">
-        <v>113.55</v>
+      <c r="B179" s="2">
+        <v>103.39</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>43040</v>
       </c>
-      <c r="B180">
-        <v>112.71</v>
+      <c r="B180" s="2">
+        <v>102.62</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>43070</v>
       </c>
-      <c r="B181">
-        <v>113.11</v>
+      <c r="B181" s="2">
+        <v>102.99</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>43101</v>
       </c>
-      <c r="B182">
-        <v>113.58</v>
+      <c r="B182" s="2">
+        <v>103.42</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>43132</v>
       </c>
-      <c r="B183">
-        <v>114.45</v>
+      <c r="B183" s="2">
+        <v>104.21</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>43160</v>
       </c>
-      <c r="B184">
-        <v>114.33</v>
+      <c r="B184" s="2">
+        <v>104.1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>43191</v>
       </c>
-      <c r="B185">
-        <v>114.54</v>
+      <c r="B185" s="2">
+        <v>104.29</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>43221</v>
       </c>
-      <c r="B186">
-        <v>114.59</v>
+      <c r="B186" s="2">
+        <v>104.34</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>43252</v>
       </c>
-      <c r="B187">
-        <v>114.36</v>
+      <c r="B187" s="2">
+        <v>104.13</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>43282</v>
       </c>
-      <c r="B188">
-        <v>114.14</v>
+      <c r="B188" s="2">
+        <v>103.93</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>43313</v>
       </c>
-      <c r="B189">
-        <v>115.15</v>
+      <c r="B189" s="2">
+        <v>104.85</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>43344</v>
       </c>
-      <c r="B190">
-        <v>116.03</v>
+      <c r="B190" s="2">
+        <v>105.65</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>43374</v>
       </c>
-      <c r="B191">
-        <v>115.82</v>
+      <c r="B191" s="2">
+        <v>105.46</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>43405</v>
       </c>
-      <c r="B192">
-        <v>115</v>
+      <c r="B192" s="2">
+        <v>104.71</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>43435</v>
       </c>
-      <c r="B193">
-        <v>114.61</v>
+      <c r="B193" s="2">
+        <v>104.35</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>43466</v>
       </c>
-      <c r="B194">
-        <v>114.48</v>
+      <c r="B194" s="2">
+        <v>104.24</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>43497</v>
       </c>
-      <c r="B195">
-        <v>114.98</v>
+      <c r="B195" s="2">
+        <v>104.69</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>43525</v>
       </c>
-      <c r="B196">
-        <v>114.76</v>
+      <c r="B196" s="2">
+        <v>104.49</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>43556</v>
       </c>
-      <c r="B197">
-        <v>115.18</v>
+      <c r="B197" s="2">
+        <v>104.87</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>43586</v>
       </c>
-      <c r="B198">
-        <v>115.37</v>
+      <c r="B198" s="2">
+        <v>105.05</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>43617</v>
       </c>
-      <c r="B199">
-        <v>115.19</v>
+      <c r="B199" s="2">
+        <v>104.88</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>43647</v>
       </c>
-      <c r="B200">
-        <v>114.84</v>
+      <c r="B200" s="2">
+        <v>104.56</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>43678</v>
       </c>
-      <c r="B201">
-        <v>115.11</v>
+      <c r="B201" s="2">
+        <v>104.81</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>43709</v>
       </c>
-      <c r="B202">
-        <v>115.54</v>
+      <c r="B202" s="2">
+        <v>105.2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>43739</v>
       </c>
-      <c r="B203">
-        <v>115.82</v>
+      <c r="B203" s="2">
+        <v>105.46</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>43770</v>
       </c>
-      <c r="B204">
-        <v>115.18</v>
+      <c r="B204" s="2">
+        <v>104.87</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>43800</v>
       </c>
-      <c r="B205">
-        <v>115.45</v>
+      <c r="B205" s="2">
+        <v>105.12</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>43831</v>
       </c>
-      <c r="B206">
-        <v>116.19</v>
+      <c r="B206" s="2">
+        <v>105.79</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>43862</v>
       </c>
-      <c r="B207">
-        <v>116.2</v>
+      <c r="B207" s="2">
+        <v>105.8</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>43891</v>
       </c>
-      <c r="B208">
-        <v>115.91</v>
+      <c r="B208" s="2">
+        <v>105.54</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>43922</v>
       </c>
-      <c r="B209">
-        <v>115.26</v>
+      <c r="B209" s="2">
+        <v>104.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B210" s="2">
+        <v>104.71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B211" s="2">
+        <v>104.87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B212" s="2">
+        <v>104.86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B213" s="2">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B214" s="2">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B215" s="2">
+        <v>105.61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B216" s="2">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B217" s="2">
+        <v>105.67</v>
       </c>
     </row>
   </sheetData>
